--- a/Taetigkeitsprotokoll_Mair.xlsx
+++ b/Taetigkeitsprotokoll_Mair.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\5AHWII\SWP\Projekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\5AHWII\swp\ProjektCCC\Ferienspass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24484E38-C6BC-4CE0-B9FB-51AF030F88EE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="882" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="882"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="Pause">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Datum</t>
   </si>
@@ -67,12 +66,24 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Mair Andreas</t>
+  </si>
+  <si>
+    <t>Mittwoch</t>
+  </si>
+  <si>
+    <t>06.11.2019</t>
+  </si>
+  <si>
+    <t>Anmelden bei Githubprojekt+Test von Push-Pull</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="[$-407]ddd"/>
@@ -264,6 +275,18 @@
     <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -287,18 +310,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -451,23 +462,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -503,23 +497,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -695,11 +672,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -712,12 +689,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="8"/>
@@ -735,7 +712,9 @@
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="C3" s="15"/>
       <c r="D3" s="16"/>
       <c r="E3" s="17"/>
@@ -752,49 +731,59 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="31" t="s">
+      <c r="B5" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="35" t="s">
+      <c r="D5" s="35"/>
+      <c r="E5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="39" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
       <c r="G6" s="8"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="27"/>
+      <c r="A7" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="25">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="D7" s="25">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>15</v>
+      </c>
       <c r="F7" s="26">
         <f>D7-C7</f>
-        <v>0</v>
+        <v>6.9444444444444531E-2</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="2"/>
@@ -812,12 +801,12 @@
         <v>0</v>
       </c>
       <c r="G8" s="11"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
@@ -1172,109 +1161,109 @@
       <c r="G37" s="11"/>
     </row>
     <row r="38" spans="1:7" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
       <c r="F38" s="22">
         <f>SUM(F7:F37)</f>
-        <v>0</v>
+        <v>6.9444444444444531E-2</v>
       </c>
       <c r="G38" s="8"/>
     </row>
     <row r="39" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="38"/>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
+      <c r="A39" s="30"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
       <c r="G39" s="8"/>
     </row>
     <row r="40" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
       <c r="G40" s="8"/>
     </row>
     <row r="41" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="39"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
+      <c r="A41" s="31"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
       <c r="G41" s="8"/>
     </row>
     <row r="42" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="40"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
       <c r="G42" s="8"/>
     </row>
     <row r="43" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="37"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
       <c r="G43" s="8"/>
     </row>
     <row r="44" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="37"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
       <c r="G44" s="8"/>
     </row>
     <row r="45" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="37"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
       <c r="G45" s="8"/>
     </row>
     <row r="46" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="37"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
+      <c r="A46" s="29"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
       <c r="G46" s="8"/>
     </row>
     <row r="47" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="37"/>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
       <c r="G47" s="8"/>
     </row>
     <row r="48" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="37"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
       <c r="G48" s="8"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -1297,6 +1286,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
     <mergeCell ref="A46:F46"/>
     <mergeCell ref="A47:F47"/>
     <mergeCell ref="A48:F48"/>
@@ -1306,15 +1304,6 @@
     <mergeCell ref="A43:F43"/>
     <mergeCell ref="A44:F44"/>
     <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
